--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5299615157477</v>
+        <v>215.9481251817</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8570019083068</v>
+        <v>295.469751832369</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.5920529543169</v>
+        <v>267.2705334119761</v>
       </c>
       <c r="AD2" t="n">
-        <v>147529.9615157477</v>
+        <v>215948.1251817</v>
       </c>
       <c r="AE2" t="n">
-        <v>201857.0019083068</v>
+        <v>295469.751832369</v>
       </c>
       <c r="AF2" t="n">
         <v>1.184983291306998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182592.0529543169</v>
+        <v>267270.5334119761</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.5315471804409</v>
+        <v>203.5816876921652</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.1226832509232</v>
+        <v>278.5494464904781</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.1186938319527</v>
+        <v>251.9650782641122</v>
       </c>
       <c r="AD2" t="n">
-        <v>145531.5471804409</v>
+        <v>203581.6876921652</v>
       </c>
       <c r="AE2" t="n">
-        <v>199122.6832509231</v>
+        <v>278549.4464904781</v>
       </c>
       <c r="AF2" t="n">
         <v>1.315773554201956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>180118.6938319527</v>
+        <v>251965.0782641122</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7005198645662</v>
+        <v>216.1215722349465</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.1950997163204</v>
+        <v>295.7070697425646</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5161287960936</v>
+        <v>267.4852020339005</v>
       </c>
       <c r="AD2" t="n">
-        <v>150700.5198645662</v>
+        <v>216121.5722349464</v>
       </c>
       <c r="AE2" t="n">
-        <v>206195.0997163204</v>
+        <v>295707.0697425646</v>
       </c>
       <c r="AF2" t="n">
         <v>1.699486943260073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186516.1287960936</v>
+        <v>267485.2020339005</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.5986269583295</v>
+        <v>208.8751326311955</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.1097324117241</v>
+        <v>285.7921713863648</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.4887333886337</v>
+        <v>258.5165676611661</v>
       </c>
       <c r="AD2" t="n">
-        <v>142598.6269583295</v>
+        <v>208875.1326311955</v>
       </c>
       <c r="AE2" t="n">
-        <v>195109.7324117241</v>
+        <v>285792.1713863648</v>
       </c>
       <c r="AF2" t="n">
         <v>1.557046210567829e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>176488.7333886337</v>
+        <v>258516.567661166</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.561809071097</v>
+        <v>233.4702693740282</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.319506541179</v>
+        <v>319.4443225387449</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4833992503034</v>
+        <v>288.9570047386644</v>
       </c>
       <c r="AD2" t="n">
-        <v>159561.809071097</v>
+        <v>233470.2693740282</v>
       </c>
       <c r="AE2" t="n">
-        <v>218319.506541179</v>
+        <v>319444.3225387449</v>
       </c>
       <c r="AF2" t="n">
         <v>1.772366000984269e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197483.3992503034</v>
+        <v>288957.0047386644</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.9309304187143</v>
+        <v>204.1513482227505</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.6691370170735</v>
+        <v>279.3288811600735</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.6129948176145</v>
+        <v>252.6701247827851</v>
       </c>
       <c r="AD2" t="n">
-        <v>145930.9304187143</v>
+        <v>204151.3482227505</v>
       </c>
       <c r="AE2" t="n">
-        <v>199669.1370170735</v>
+        <v>279328.8811600735</v>
       </c>
       <c r="AF2" t="n">
         <v>1.287990561580479e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180612.9948176146</v>
+        <v>252670.124782785</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.9115346264475</v>
+        <v>251.583034475822</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.1122135267832</v>
+        <v>344.227006829807</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.0551882358826</v>
+        <v>311.3744644237112</v>
       </c>
       <c r="AD2" t="n">
-        <v>168911.5346264475</v>
+        <v>251583.034475822</v>
       </c>
       <c r="AE2" t="n">
-        <v>231112.2135267832</v>
+        <v>344227.006829807</v>
       </c>
       <c r="AF2" t="n">
         <v>1.789389663541696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>209055.1882358826</v>
+        <v>311374.4644237112</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.0728126513217</v>
+        <v>201.5703209639556</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.1267783133578</v>
+        <v>275.7974057977058</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.3132752603578</v>
+        <v>249.4756884725438</v>
       </c>
       <c r="AD2" t="n">
-        <v>144072.8126513217</v>
+        <v>201570.3209639556</v>
       </c>
       <c r="AE2" t="n">
-        <v>197126.7783133578</v>
+        <v>275797.4057977058</v>
       </c>
       <c r="AF2" t="n">
         <v>1.426614055503056e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>178313.2752603578</v>
+        <v>249475.6884725438</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.1234574246737</v>
+        <v>202.6469250399016</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.8818756745763</v>
+        <v>277.270462990834</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.2370089435889</v>
+        <v>250.8081591546091</v>
       </c>
       <c r="AD2" t="n">
-        <v>135123.4574246737</v>
+        <v>202646.9250399016</v>
       </c>
       <c r="AE2" t="n">
-        <v>184881.8756745764</v>
+        <v>277270.462990834</v>
       </c>
       <c r="AF2" t="n">
         <v>1.36233499546364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167237.0089435889</v>
+        <v>250808.1591546091</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.0539599403402</v>
+        <v>205.5978154120429</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.2057155531271</v>
+        <v>281.3080013820911</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.0029244547892</v>
+        <v>254.4603605485266</v>
       </c>
       <c r="AD2" t="n">
-        <v>147053.9599403402</v>
+        <v>205597.8154120429</v>
       </c>
       <c r="AE2" t="n">
-        <v>201205.7155531271</v>
+        <v>281308.0013820911</v>
       </c>
       <c r="AF2" t="n">
         <v>1.215595224443511e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182002.9244547892</v>
+        <v>254460.3605485266</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.9922838865815</v>
+        <v>200.0775814328935</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.6483511878762</v>
+        <v>273.7549737162873</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.9759471447462</v>
+        <v>247.6281832424037</v>
       </c>
       <c r="AD2" t="n">
-        <v>142992.2838865815</v>
+        <v>200077.5814328935</v>
       </c>
       <c r="AE2" t="n">
-        <v>195648.3511878762</v>
+        <v>273754.9737162873</v>
       </c>
       <c r="AF2" t="n">
         <v>1.519423234207827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176975.9471447462</v>
+        <v>247628.1832424037</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.6717723708467</v>
+        <v>207.4783059513735</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.8415690751923</v>
+        <v>283.8809714993894</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.3416017810616</v>
+        <v>256.787770009017</v>
       </c>
       <c r="AD2" t="n">
-        <v>141671.7723708467</v>
+        <v>207478.3059513735</v>
       </c>
       <c r="AE2" t="n">
-        <v>193841.5690751923</v>
+        <v>283880.9714993894</v>
       </c>
       <c r="AF2" t="n">
         <v>1.650063876863634e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175341.6017810616</v>
+        <v>256787.770009017</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.4939067887544</v>
+        <v>224.907480711191</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.9124025908693</v>
+        <v>307.7283373266824</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.2604118875275</v>
+        <v>278.3591767117489</v>
       </c>
       <c r="AD2" t="n">
-        <v>150493.9067887544</v>
+        <v>224907.480711191</v>
       </c>
       <c r="AE2" t="n">
-        <v>205912.4025908693</v>
+        <v>307728.3373266824</v>
       </c>
       <c r="AF2" t="n">
         <v>1.730839220862885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186260.4118875275</v>
+        <v>278359.1767117489</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.4428055162993</v>
+        <v>288.518474811706</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.1499570690954</v>
+        <v>394.7637057741508</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.367224324346</v>
+        <v>357.0880117494061</v>
       </c>
       <c r="AD2" t="n">
-        <v>197442.8055162993</v>
+        <v>288518.474811706</v>
       </c>
       <c r="AE2" t="n">
-        <v>270149.9570690953</v>
+        <v>394763.7057741508</v>
       </c>
       <c r="AF2" t="n">
         <v>1.747909681425201e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>244367.224324346</v>
+        <v>357088.0117494061</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.6896587519888</v>
+        <v>201.9985396787274</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.2883331927623</v>
+        <v>276.3833135349325</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.700113323197</v>
+        <v>250.0056779976565</v>
       </c>
       <c r="AD2" t="n">
-        <v>134689.6587519888</v>
+        <v>201998.5396787274</v>
       </c>
       <c r="AE2" t="n">
-        <v>184288.3331927623</v>
+        <v>276383.3135349326</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398664901936507e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>166700.113323197</v>
+        <v>250005.6779976565</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5104327833668</v>
+        <v>204.8952511522019</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.4620377182306</v>
+        <v>280.3467219668294</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.3302221886966</v>
+        <v>253.590824291493</v>
       </c>
       <c r="AD2" t="n">
-        <v>146510.4327833668</v>
+        <v>204895.2511522019</v>
       </c>
       <c r="AE2" t="n">
-        <v>200462.0377182306</v>
+        <v>280346.7219668294</v>
       </c>
       <c r="AF2" t="n">
         <v>1.249874487821844e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>181330.2221886966</v>
+        <v>253590.824291493</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.601998386022</v>
+        <v>362.9535346178271</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.043489387057</v>
+        <v>496.6090384439625</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.9719704000559</v>
+        <v>449.2133688100329</v>
       </c>
       <c r="AD2" t="n">
-        <v>245601.998386022</v>
+        <v>362953.5346178272</v>
       </c>
       <c r="AE2" t="n">
-        <v>336043.489387057</v>
+        <v>496609.0384439625</v>
       </c>
       <c r="AF2" t="n">
         <v>1.602521898730096e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>303971.9704000559</v>
+        <v>449213.3688100329</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.0193809961376</v>
+        <v>208.0196507932532</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.3171825317252</v>
+        <v>284.6216633944976</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.7718233568309</v>
+        <v>257.4577713092239</v>
       </c>
       <c r="AD2" t="n">
-        <v>142019.3809961376</v>
+        <v>208019.6507932532</v>
       </c>
       <c r="AE2" t="n">
-        <v>194317.1825317252</v>
+        <v>284621.6633944976</v>
       </c>
       <c r="AF2" t="n">
         <v>1.61135449560372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>175771.8233568309</v>
+        <v>257457.7713092239</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.5240271299552</v>
+        <v>200.820560435764</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.3759057523161</v>
+        <v>274.7715503659344</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.6340649226854</v>
+        <v>248.5477392433833</v>
       </c>
       <c r="AD2" t="n">
-        <v>143524.0271299552</v>
+        <v>200820.560435764</v>
       </c>
       <c r="AE2" t="n">
-        <v>196375.9057523161</v>
+        <v>274771.5503659344</v>
       </c>
       <c r="AF2" t="n">
         <v>1.47301897816762e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>177634.0649226854</v>
+        <v>248547.7392433833</v>
       </c>
     </row>
   </sheetData>
